--- a/技术图纸/调度平台图纸/边缘板/30寸边缘板/11903021 30寸台面边缘板模块，右，（深灰）FEPM-R-30-RH-DARKGRAY .xlsx
+++ b/技术图纸/调度平台图纸/边缘板/30寸边缘板/11903021 30寸台面边缘板模块，右，（深灰）FEPM-R-30-RH-DARKGRAY .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>序号</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t xml:space="preserve">11903021 30寸台面边缘板模块，右，（深灰）FEPM-R-30-RH-DARKGRAY </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深灰橘纹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,6 +484,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,15 +538,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -515,51 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -859,7 +863,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:J10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -881,16 +885,16 @@
     <row r="2" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -898,20 +902,20 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="45">
         <f ca="1">TODAY()</f>
-        <v>41985</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62" t="s">
+        <v>42254</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="54" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -923,17 +927,17 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1"/>
@@ -946,20 +950,20 @@
       <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="30" t="s">
         <v>6</v>
       </c>
@@ -968,23 +972,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B8" s="47">
+      <c r="B8" s="62">
         <v>1</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="31">
         <v>1</v>
       </c>
       <c r="F8" s="31">
         <v>11083000</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="43"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="32">
         <v>1</v>
       </c>
@@ -993,44 +997,44 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="B9" s="47"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="31">
         <v>2</v>
       </c>
       <c r="F9" s="32">
         <v>11083021</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="43"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="32">
         <v>1</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="28">
         <v>2</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="36"/>
       <c r="F10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="49"/>
+      <c r="H10" s="64"/>
       <c r="I10" s="35">
         <v>1</v>
       </c>
@@ -1040,18 +1044,18 @@
       <c r="B11" s="28">
         <v>3</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="28"/>
       <c r="F11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="35">
         <v>2</v>
       </c>
@@ -1070,8 +1074,8 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="26"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -1081,8 +1085,8 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="26"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16"/>
       <c r="G14" s="22"/>
@@ -1092,8 +1096,8 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="26"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
       <c r="G15" s="20"/>
@@ -1103,8 +1107,8 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="26"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="12"/>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
@@ -1114,8 +1118,8 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="26"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="12"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
@@ -1125,8 +1129,8 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="12"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="G18" s="22"/>
@@ -1136,8 +1140,8 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="12"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
       <c r="G19" s="22"/>
@@ -1147,8 +1151,8 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="12"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
       <c r="G20" s="20"/>
@@ -1158,8 +1162,8 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="12"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
       <c r="G21" s="20"/>
@@ -1168,9 +1172,9 @@
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="15"/>
       <c r="F22" s="14"/>
       <c r="G22" s="20"/>
@@ -1179,9 +1183,9 @@
       <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="39"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="12"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
@@ -1190,9 +1194,9 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="39"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="12"/>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
@@ -1201,9 +1205,9 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="15"/>
       <c r="F25" s="14"/>
       <c r="G25" s="20"/>
@@ -1212,9 +1216,9 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="39"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="12"/>
       <c r="F26" s="16"/>
       <c r="G26" s="17"/>
@@ -1223,9 +1227,9 @@
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="39"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="12"/>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
@@ -1499,13 +1503,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
@@ -1522,16 +1529,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
